--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="605">
   <si>
     <t>Property</t>
   </si>
@@ -294,406 +294,410 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>heartRhythm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRhythm}
+</t>
+  </si>
+  <si>
+    <t>Regularity of the pulse or heart beat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>clinicalDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationClinicalDescription}
+</t>
+  </si>
+  <si>
+    <t>Narrative description about the pulse or heart beat.</t>
+  </si>
+  <si>
+    <t>characterOfHeartrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationCharacterOfHeartRate}
+</t>
+  </si>
+  <si>
+    <t>Description of the character of the pulse or heart beat.</t>
+  </si>
+  <si>
+    <t>BodyPosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRateBodyPosition}
+</t>
+  </si>
+  <si>
+    <t>The body position of the subject during the observation.</t>
+  </si>
+  <si>
+    <t>heartRythmIrregularity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRhythmIrregularity}
+</t>
+  </si>
+  <si>
+    <t>More specific pattern of an irregular pulse or heart beat.</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  Notes below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>VSCat</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>heartRhythm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRhythm}
-</t>
-  </si>
-  <si>
-    <t>Regularity of the pulse or heart beat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>clinicalDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationClinicalDescription}
-</t>
-  </si>
-  <si>
-    <t>Narrative description about the pulse or heart beat.</t>
-  </si>
-  <si>
-    <t>characterOfHeartrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationCharacterOfHeartRate}
-</t>
-  </si>
-  <si>
-    <t>Description of the character of the pulse or heart beat.</t>
-  </si>
-  <si>
-    <t>BodyPosition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRateBodyPosition}
-</t>
-  </si>
-  <si>
-    <t>The body position of the subject during the observation.</t>
-  </si>
-  <si>
-    <t>heartRythmIrregularity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRhythmIrregularity}
-</t>
-  </si>
-  <si>
-    <t>More specific pattern of an irregular pulse or heart beat.</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  Notes below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>value:coding.code}
-value:coding.system}</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>VSCat</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4761,13 +4765,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4818,7 +4822,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4842,7 +4846,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4853,7 +4857,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4879,10 +4883,10 @@
         <v>134</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>161</v>
@@ -4926,7 +4930,7 @@
         <v>137</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
@@ -4935,7 +4939,7 @@
         <v>138</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4959,7 +4963,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4970,7 +4974,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4993,19 +4997,19 @@
         <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5054,7 +5058,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5075,10 +5079,10 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5089,7 +5093,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5112,13 +5116,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5169,7 +5173,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5193,7 +5197,7 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5204,7 +5208,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5230,10 +5234,10 @@
         <v>134</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>161</v>
@@ -5277,7 +5281,7 @@
         <v>137</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
@@ -5286,7 +5290,7 @@
         <v>138</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5310,7 +5314,7 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5321,7 +5325,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5347,23 +5351,23 @@
         <v>103</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>79</v>
@@ -5405,7 +5409,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5426,10 +5430,10 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5440,7 +5444,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5463,16 +5467,16 @@
         <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5522,7 +5526,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5543,10 +5547,10 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5557,7 +5561,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5583,21 +5587,21 @@
         <v>109</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>79</v>
@@ -5639,7 +5643,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5660,10 +5664,10 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5674,7 +5678,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5697,17 +5701,17 @@
         <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5756,7 +5760,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5777,10 +5781,10 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5791,7 +5795,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5814,19 +5818,19 @@
         <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5875,7 +5879,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5896,10 +5900,10 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5910,7 +5914,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5933,19 +5937,19 @@
         <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5994,7 +5998,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6015,10 +6019,10 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6029,11 +6033,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -6055,16 +6059,16 @@
         <v>204</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6089,13 +6093,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6113,7 +6117,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>89</v>
@@ -6128,27 +6132,27 @@
         <v>101</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6171,13 +6175,13 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6228,7 +6232,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6252,7 +6256,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6263,7 +6267,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6289,10 +6293,10 @@
         <v>134</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>161</v>
@@ -6336,7 +6340,7 @@
         <v>137</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>79</v>
@@ -6345,7 +6349,7 @@
         <v>138</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6369,7 +6373,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6380,7 +6384,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6403,19 +6407,19 @@
         <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6452,7 +6456,7 @@
         <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
@@ -6462,7 +6466,7 @@
         <v>138</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6483,10 +6487,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6497,10 +6501,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>79</v>
@@ -6522,19 +6526,19 @@
         <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6583,7 +6587,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6604,10 +6608,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6618,7 +6622,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6641,13 +6645,13 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6698,7 +6702,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6722,7 +6726,7 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6733,7 +6737,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6759,10 +6763,10 @@
         <v>134</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>161</v>
@@ -6806,7 +6810,7 @@
         <v>137</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
@@ -6815,7 +6819,7 @@
         <v>138</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6839,7 +6843,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6850,7 +6854,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6876,23 +6880,23 @@
         <v>103</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>79</v>
@@ -6934,7 +6938,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6955,10 +6959,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6969,7 +6973,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6992,16 +6996,16 @@
         <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7051,7 +7055,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7072,10 +7076,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7086,7 +7090,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7112,21 +7116,21 @@
         <v>109</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>79</v>
@@ -7168,7 +7172,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7189,10 +7193,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7203,7 +7207,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7226,17 +7230,17 @@
         <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7285,7 +7289,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7306,10 +7310,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7320,7 +7324,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7343,19 +7347,19 @@
         <v>90</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7404,7 +7408,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7425,10 +7429,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7439,7 +7443,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7462,19 +7466,19 @@
         <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7523,7 +7527,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7544,10 +7548,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7558,7 +7562,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7581,19 +7585,19 @@
         <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7642,7 +7646,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7657,19 +7661,19 @@
         <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7677,7 +7681,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7700,16 +7704,16 @@
         <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7759,7 +7763,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7780,13 +7784,13 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7794,11 +7798,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7817,19 +7821,19 @@
         <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7878,7 +7882,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7893,19 +7897,19 @@
         <v>101</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7913,11 +7917,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7936,19 +7940,19 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7997,7 +8001,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8006,25 +8010,25 @@
         <v>89</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -8032,7 +8036,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8055,16 +8059,16 @@
         <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8114,7 +8118,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8135,13 +8139,13 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8149,7 +8153,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8172,17 +8176,17 @@
         <v>90</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8219,7 +8223,7 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AB51" s="2"/>
       <c r="AC51" t="s" s="2">
@@ -8229,7 +8233,7 @@
         <v>138</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8244,19 +8248,19 @@
         <v>101</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8264,10 +8268,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>79</v>
@@ -8289,17 +8293,17 @@
         <v>90</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8348,7 +8352,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8363,19 +8367,19 @@
         <v>101</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8383,10 +8387,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>79</v>
@@ -8408,17 +8412,17 @@
         <v>90</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8467,7 +8471,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8482,19 +8486,19 @@
         <v>101</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8502,7 +8506,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8525,19 +8529,19 @@
         <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8574,17 +8578,17 @@
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AB54" s="2"/>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8593,7 +8597,7 @@
         <v>89</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>101</v>
@@ -8602,27 +8606,27 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>79</v>
@@ -8644,19 +8648,19 @@
         <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8705,7 +8709,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8714,7 +8718,7 @@
         <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>101</v>
@@ -8723,24 +8727,24 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8763,13 +8767,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8820,7 +8824,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8844,7 +8848,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8855,7 +8859,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8881,10 +8885,10 @@
         <v>134</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>161</v>
@@ -8928,7 +8932,7 @@
         <v>137</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>79</v>
@@ -8937,7 +8941,7 @@
         <v>138</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8961,7 +8965,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8972,7 +8976,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8995,19 +8999,19 @@
         <v>90</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9056,7 +9060,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9077,10 +9081,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9091,7 +9095,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9117,20 +9121,20 @@
         <v>109</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>79</v>
@@ -9154,10 +9158,10 @@
         <v>196</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9175,7 +9179,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9196,10 +9200,10 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9210,7 +9214,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9233,17 +9237,17 @@
         <v>90</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9292,7 +9296,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9313,10 +9317,10 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9327,7 +9331,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9353,21 +9357,21 @@
         <v>103</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>79</v>
@@ -9409,7 +9413,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9418,7 +9422,7 @@
         <v>89</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>101</v>
@@ -9430,10 +9434,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9444,7 +9448,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9470,23 +9474,23 @@
         <v>109</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>79</v>
@@ -9528,7 +9532,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9549,10 +9553,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9563,7 +9567,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9589,16 +9593,16 @@
         <v>204</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9623,13 +9627,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9647,7 +9651,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9656,7 +9660,7 @@
         <v>89</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>101</v>
@@ -9671,7 +9675,7 @@
         <v>132</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9682,11 +9686,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9708,16 +9712,16 @@
         <v>204</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9742,13 +9746,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9766,7 +9770,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9784,24 +9788,24 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9824,19 +9828,19 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9885,7 +9889,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9906,10 +9910,10 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9920,7 +9924,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9946,13 +9950,13 @@
         <v>204</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9982,7 +9986,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -10000,7 +10004,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10018,24 +10022,24 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10058,13 +10062,13 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10115,7 +10119,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10139,7 +10143,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10150,7 +10154,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10176,10 +10180,10 @@
         <v>134</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>161</v>
@@ -10223,7 +10227,7 @@
         <v>137</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>79</v>
@@ -10232,7 +10236,7 @@
         <v>138</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10256,7 +10260,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10267,7 +10271,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10290,19 +10294,19 @@
         <v>90</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10331,7 +10335,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10349,7 +10353,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10370,10 +10374,10 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10384,7 +10388,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10407,19 +10411,19 @@
         <v>90</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10468,7 +10472,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10489,10 +10493,10 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10503,7 +10507,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10529,16 +10533,16 @@
         <v>204</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10563,13 +10567,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10587,7 +10591,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10608,10 +10612,10 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10622,7 +10626,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10645,16 +10649,16 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10704,7 +10708,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10722,24 +10726,24 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10762,16 +10766,16 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10821,7 +10825,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10839,24 +10843,24 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10879,19 +10883,19 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10940,7 +10944,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10952,7 +10956,7 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
@@ -10961,10 +10965,10 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10975,7 +10979,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10998,13 +11002,13 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -11055,7 +11059,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11079,7 +11083,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11090,7 +11094,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11116,10 +11120,10 @@
         <v>134</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>161</v>
@@ -11172,7 +11176,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11196,7 +11200,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11207,11 +11211,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11233,10 +11237,10 @@
         <v>134</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>161</v>
@@ -11291,7 +11295,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11326,7 +11330,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11349,13 +11353,13 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11406,7 +11410,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11415,7 +11419,7 @@
         <v>89</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>101</v>
@@ -11427,10 +11431,10 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11441,7 +11445,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11464,13 +11468,13 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11521,7 +11525,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11530,7 +11534,7 @@
         <v>89</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>101</v>
@@ -11542,10 +11546,10 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11556,7 +11560,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11582,16 +11586,16 @@
         <v>204</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11619,10 +11623,10 @@
         <v>113</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11640,7 +11644,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11658,13 +11662,13 @@
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11675,7 +11679,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11701,16 +11705,16 @@
         <v>204</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11735,13 +11739,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11759,7 +11763,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11777,13 +11781,13 @@
         <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11794,7 +11798,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11817,17 +11821,17 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11876,7 +11880,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11900,7 +11904,7 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11911,7 +11915,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11934,13 +11938,13 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11991,7 +11995,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -12012,10 +12016,10 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12026,7 +12030,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12049,16 +12053,16 @@
         <v>90</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -12108,7 +12112,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12129,10 +12133,10 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12143,7 +12147,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12166,16 +12170,16 @@
         <v>90</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12225,7 +12229,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12246,10 +12250,10 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12260,7 +12264,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12283,19 +12287,19 @@
         <v>90</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12344,7 +12348,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12356,7 +12360,7 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
@@ -12365,10 +12369,10 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12379,7 +12383,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12402,13 +12406,13 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12459,7 +12463,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12483,7 +12487,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12494,7 +12498,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12520,10 +12524,10 @@
         <v>134</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>161</v>
@@ -12576,7 +12580,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12600,7 +12604,7 @@
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12611,11 +12615,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12637,10 +12641,10 @@
         <v>134</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>161</v>
@@ -12695,7 +12699,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12730,7 +12734,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12756,16 +12760,16 @@
         <v>204</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12790,13 +12794,13 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12814,7 +12818,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>89</v>
@@ -12832,16 +12836,16 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -12849,7 +12853,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12872,19 +12876,19 @@
         <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12912,10 +12916,10 @@
         <v>196</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -12933,7 +12937,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12942,7 +12946,7 @@
         <v>89</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>101</v>
@@ -12951,24 +12955,24 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12994,16 +12998,16 @@
         <v>204</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -13028,13 +13032,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -13052,7 +13056,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -13061,7 +13065,7 @@
         <v>89</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>101</v>
@@ -13076,7 +13080,7 @@
         <v>132</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13087,11 +13091,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13113,16 +13117,16 @@
         <v>204</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -13147,13 +13151,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -13171,7 +13175,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13189,24 +13193,24 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13232,16 +13236,16 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13290,7 +13294,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13311,10 +13315,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -459,7 +459,7 @@
     <t>heartRhythm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRhythm}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationHeartRhythm}
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>BodyPosition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRateBodyPosition}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationHeartRateBodyPosition}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>heartRythmIrregularity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {NoDomainVitalSignsObservationHeartRhythmIrregularity}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationHeartRhythmIrregularity}
 </t>
   </si>
   <si>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3577" uniqueCount="608">
   <si>
     <t>Property</t>
   </si>
@@ -269,10 +269,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -470,6 +466,19 @@
 </t>
   </si>
   <si>
+    <t>confoundingFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationConfoundingFactor}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
     <t>clinicalDescription</t>
   </si>
   <si>
@@ -1186,14 +1195,14 @@
     <t>Author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|CareTeam|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole)
 </t>
   </si>
   <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization|CareTeam|Patient|RelatedPerson)
+    <t>organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
 </t>
   </si>
   <si>
@@ -2223,7 +2232,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO94"/>
+  <dimension ref="A1:AO95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2496,19 +2505,19 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2519,7 +2528,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2530,28 +2539,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2601,13 +2610,13 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -2636,7 +2645,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2647,25 +2656,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2716,19 +2725,19 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>79</v>
@@ -2751,7 +2760,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2762,28 +2771,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2833,19 +2842,19 @@
         <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>79</v>
@@ -2868,7 +2877,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2879,7 +2888,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>79</v>
@@ -2891,16 +2900,16 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2926,43 +2935,43 @@
         <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>79</v>
@@ -2985,18 +2994,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>79</v>
@@ -3008,16 +3017,16 @@
         <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3067,31 +3076,31 @@
         <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -3102,11 +3111,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3125,16 +3134,16 @@
         <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3184,7 +3193,7 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -3208,7 +3217,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -3219,7 +3228,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3242,13 +3251,13 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3287,17 +3296,17 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -3309,7 +3318,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3332,10 +3341,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>79</v>
@@ -3345,7 +3354,7 @@
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
@@ -3357,13 +3366,13 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3414,7 +3423,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3423,10 +3432,10 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
@@ -3438,7 +3447,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3449,10 +3458,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>79</v>
@@ -3462,7 +3471,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -3474,10 +3483,10 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>147</v>
@@ -3531,7 +3540,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3540,10 +3549,10 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3555,7 +3564,7 @@
         <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>79</v>
@@ -3566,7 +3575,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>148</v>
@@ -3579,7 +3588,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
@@ -3648,7 +3657,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3657,10 +3666,10 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -3672,7 +3681,7 @@
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
@@ -3683,7 +3692,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>151</v>
@@ -3696,7 +3705,7 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
@@ -3765,7 +3774,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3774,10 +3783,10 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>79</v>
@@ -3789,7 +3798,7 @@
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3800,7 +3809,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>154</v>
@@ -3813,7 +3822,7 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -3882,7 +3891,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3891,10 +3900,10 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
@@ -3906,7 +3915,7 @@
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3917,43 +3926,41 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>159</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>79</v>
       </c>
@@ -4001,7 +4008,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4010,10 +4017,10 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
@@ -4025,7 +4032,7 @@
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -4036,11 +4043,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4053,23 +4060,25 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -4118,7 +4127,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4130,22 +4139,22 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -4153,11 +4162,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4173,20 +4182,20 @@
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -4235,7 +4244,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4247,22 +4256,22 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -4270,11 +4279,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4290,21 +4299,21 @@
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4352,7 +4361,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4364,19 +4373,19 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4385,45 +4394,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4447,11 +4454,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -4469,42 +4478,42 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4512,34 +4521,34 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4564,81 +4573,79 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4646,19 +4653,19 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4683,31 +4690,29 @@
         <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4719,7 +4724,7 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
@@ -4731,33 +4736,35 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4765,16 +4772,20 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4798,13 +4809,13 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
@@ -4822,19 +4833,19 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
@@ -4846,10 +4857,10 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4857,18 +4868,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -4880,17 +4891,15 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4927,90 +4936,88 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5046,19 +5053,19 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5070,7 +5077,7 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
@@ -5079,10 +5086,10 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5091,9 +5098,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5101,31 +5108,35 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5173,19 +5184,19 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>79</v>
@@ -5194,10 +5205,10 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5208,18 +5219,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -5231,17 +5242,15 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5278,31 +5287,31 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>79</v>
@@ -5314,7 +5323,7 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5323,51 +5332,49 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>79</v>
@@ -5397,31 +5404,31 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
@@ -5430,10 +5437,10 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5442,9 +5449,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5452,39 +5459,41 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>216</v>
+        <v>102</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>79</v>
@@ -5526,19 +5535,19 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5547,10 +5556,10 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5559,9 +5568,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5569,39 +5578,39 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>79</v>
@@ -5643,19 +5652,19 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
@@ -5664,10 +5673,10 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5676,9 +5685,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5686,39 +5695,39 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>79</v>
@@ -5760,19 +5769,19 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
@@ -5781,10 +5790,10 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5795,7 +5804,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5806,31 +5815,29 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5879,19 +5886,19 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
@@ -5900,10 +5907,10 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5914,7 +5921,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5925,31 +5932,31 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5998,19 +6005,19 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
@@ -6019,10 +6026,10 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6031,44 +6038,44 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6093,13 +6100,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6120,71 +6127,75 @@
         <v>285</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>217</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6208,13 +6219,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6232,53 +6243,53 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6290,17 +6301,15 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6337,31 +6346,31 @@
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>79</v>
@@ -6373,7 +6382,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6384,11 +6393,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6404,23 +6413,21 @@
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6456,17 +6463,19 @@
         <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AB36" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="AC36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6478,7 +6487,7 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>79</v>
@@ -6487,10 +6496,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6501,44 +6510,42 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6575,19 +6582,17 @@
         <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6599,7 +6604,7 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>79</v>
@@ -6608,10 +6613,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6624,37 +6629,43 @@
       <c r="A38" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="C38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6702,19 +6713,19 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
@@ -6723,10 +6734,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6737,18 +6748,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6760,17 +6771,15 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6807,31 +6816,31 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
@@ -6843,7 +6852,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6854,18 +6863,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6874,29 +6883,27 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>79</v>
@@ -6926,31 +6933,31 @@
         <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>79</v>
@@ -6959,10 +6966,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6973,7 +6980,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6981,39 +6988,41 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>216</v>
+        <v>102</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>79</v>
@@ -7055,19 +7064,19 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
@@ -7076,10 +7085,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7090,7 +7099,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7098,39 +7107,39 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>79</v>
@@ -7172,19 +7181,19 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
@@ -7193,10 +7202,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7207,7 +7216,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7215,39 +7224,39 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>79</v>
@@ -7289,19 +7298,19 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -7310,10 +7319,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7324,7 +7333,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7335,31 +7344,29 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7408,19 +7415,19 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7429,10 +7436,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7443,7 +7450,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7454,31 +7461,31 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7527,19 +7534,19 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
@@ -7548,10 +7555,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7560,9 +7567,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7570,34 +7577,34 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>316</v>
+        <v>219</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7646,42 +7653,42 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7689,33 +7696,35 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7763,34 +7772,34 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AF47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="AM47" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7798,43 +7807,41 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7882,77 +7889,77 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -8001,76 +8008,78 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AM49" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8118,34 +8127,34 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="AM50" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8153,7 +8162,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8164,7 +8173,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -8173,21 +8182,21 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8223,44 +8232,46 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AB51" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AM51" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8268,11 +8279,9 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8290,20 +8299,20 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8340,19 +8349,17 @@
         <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8364,22 +8371,22 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8387,10 +8394,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>79</v>
@@ -8409,20 +8416,20 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8471,7 +8478,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8483,22 +8490,22 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8506,9 +8513,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8517,31 +8526,29 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8578,56 +8585,56 @@
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AB54" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8636,31 +8643,31 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8697,56 +8704,56 @@
         <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="AB55" s="2"/>
       <c r="AC55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8755,28 +8762,32 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G56" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>216</v>
+        <v>381</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>217</v>
+        <v>393</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8824,53 +8835,53 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>219</v>
+        <v>380</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8882,17 +8893,15 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8929,31 +8938,31 @@
         <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
@@ -8965,7 +8974,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8974,45 +8983,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>395</v>
+        <v>133</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>396</v>
+        <v>225</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>397</v>
+        <v>226</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9048,31 +9055,31 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -9081,10 +9088,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>402</v>
+        <v>223</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9093,9 +9100,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9103,118 +9110,118 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>109</v>
+        <v>398</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="Q59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9222,37 +9229,39 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="I60" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="Q60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9272,13 +9281,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9296,19 +9305,19 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9317,10 +9326,10 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9331,7 +9340,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9339,39 +9348,39 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G61" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>79</v>
@@ -9413,19 +9422,19 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9434,10 +9443,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9448,7 +9457,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9456,41 +9465,39 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G62" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>79</v>
@@ -9532,19 +9539,19 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9553,10 +9560,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9567,7 +9574,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9575,41 +9582,41 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G63" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>79</v>
@@ -9627,13 +9634,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9651,19 +9658,19 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9672,10 +9679,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>132</v>
+        <v>421</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9684,23 +9691,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9709,19 +9716,19 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9746,13 +9753,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9770,46 +9777,46 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>453</v>
+        <v>131</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9828,19 +9835,19 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>457</v>
+        <v>207</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9865,13 +9872,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9889,7 +9896,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9901,30 +9908,30 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9935,7 +9942,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9947,18 +9954,20 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>204</v>
+        <v>460</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9982,11 +9991,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -10004,42 +10015,42 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10050,7 +10061,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -10062,15 +10073,17 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>217</v>
+        <v>468</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10095,13 +10108,11 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -10119,53 +10130,53 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>219</v>
+        <v>467</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>220</v>
+        <v>474</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -10177,17 +10188,15 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10224,31 +10233,31 @@
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
@@ -10260,7 +10269,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10271,11 +10280,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10291,23 +10300,21 @@
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10331,29 +10338,31 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y69" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10365,7 +10374,7 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>79</v>
@@ -10374,10 +10383,10 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10388,7 +10397,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10399,31 +10408,31 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10448,13 +10457,11 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10472,19 +10479,19 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
@@ -10493,10 +10500,10 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10507,7 +10514,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10518,31 +10525,31 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>478</v>
+        <v>281</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>479</v>
+        <v>282</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>480</v>
+        <v>283</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>481</v>
+        <v>284</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10567,13 +10574,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10591,19 +10598,19 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>477</v>
+        <v>285</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
@@ -10612,10 +10619,10 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>485</v>
+        <v>286</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>486</v>
+        <v>287</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10626,7 +10633,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10637,7 +10644,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10649,18 +10656,20 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>488</v>
+        <v>207</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10684,13 +10693,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10708,42 +10717,42 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10754,7 +10763,7 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10766,16 +10775,16 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10825,42 +10834,42 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AF73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>502</v>
-      </c>
       <c r="AM73" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10871,7 +10880,7 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
@@ -10883,20 +10892,18 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10944,42 +10951,42 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AF74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>512</v>
-      </c>
       <c r="AM74" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10990,7 +10997,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>79</v>
@@ -11002,16 +11009,20 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>216</v>
+        <v>509</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>217</v>
+        <v>510</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11059,19 +11070,19 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>219</v>
+        <v>508</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>79</v>
@@ -11080,10 +11091,10 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>220</v>
+        <v>516</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11094,18 +11105,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>79</v>
@@ -11117,17 +11128,15 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11176,19 +11185,19 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11200,7 +11209,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11211,11 +11220,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>517</v>
+        <v>161</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11228,26 +11237,24 @@
         <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>518</v>
+        <v>225</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>519</v>
+        <v>226</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11295,7 +11302,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>520</v>
+        <v>228</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11307,7 +11314,7 @@
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11319,7 +11326,7 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11330,39 +11337,43 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I78" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="K78" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="M78" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11410,19 +11421,19 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11431,10 +11442,10 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>527</v>
+        <v>131</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11445,7 +11456,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11456,7 +11467,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11468,13 +11479,13 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11525,19 +11536,19 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH79" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="AF79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
@@ -11546,10 +11557,10 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11560,7 +11571,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11571,7 +11582,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>79</v>
@@ -11583,20 +11594,16 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>204</v>
+        <v>525</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>536</v>
-      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11620,13 +11627,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11644,31 +11651,31 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>454</v>
+        <v>534</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11679,7 +11686,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11690,7 +11697,7 @@
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
@@ -11702,19 +11709,19 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11739,13 +11746,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>482</v>
+        <v>112</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11763,31 +11770,31 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11798,7 +11805,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11809,7 +11816,7 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>79</v>
@@ -11821,17 +11828,19 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>549</v>
+        <v>207</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="N82" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11856,13 +11865,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11880,31 +11889,31 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>553</v>
+        <v>457</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11915,7 +11924,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11926,7 +11935,7 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>79</v>
@@ -11938,16 +11947,18 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>216</v>
+        <v>552</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
       </c>
@@ -11995,19 +12006,19 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>79</v>
@@ -12016,10 +12027,10 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12030,7 +12041,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12041,7 +12052,7 @@
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>79</v>
@@ -12050,20 +12061,18 @@
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="K84" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>562</v>
-      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12112,19 +12121,19 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>79</v>
@@ -12133,10 +12142,10 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>563</v>
+        <v>529</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12147,7 +12156,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12167,19 +12176,19 @@
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12229,7 +12238,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12241,7 +12250,7 @@
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>79</v>
@@ -12250,10 +12259,10 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12262,9 +12271,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12278,29 +12287,27 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="L86" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>574</v>
-      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12348,7 +12355,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12360,7 +12367,7 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>575</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
@@ -12369,10 +12376,10 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12381,9 +12388,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12394,28 +12401,32 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G87" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>216</v>
+        <v>509</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>217</v>
+        <v>575</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12463,19 +12474,19 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>219</v>
+        <v>574</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
@@ -12484,10 +12495,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12498,18 +12509,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12521,17 +12532,15 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12580,19 +12589,19 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>79</v>
@@ -12604,7 +12613,7 @@
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12615,11 +12624,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>517</v>
+        <v>161</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12632,26 +12641,24 @@
         <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>518</v>
+        <v>225</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>519</v>
+        <v>226</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12699,7 +12706,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>520</v>
+        <v>228</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12711,7 +12718,7 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
@@ -12723,7 +12730,7 @@
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12732,44 +12739,44 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="I90" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G90" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J90" t="s" s="2">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>582</v>
+        <v>521</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>583</v>
+        <v>522</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>584</v>
+        <v>164</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>585</v>
+        <v>165</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12794,13 +12801,13 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12818,34 +12825,34 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>581</v>
+        <v>523</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>586</v>
+        <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -12853,7 +12860,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12861,34 +12868,34 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G91" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G91" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12913,13 +12920,13 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>592</v>
+        <v>295</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>593</v>
+        <v>296</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -12937,42 +12944,42 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>594</v>
+        <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12983,31 +12990,31 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G92" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G92" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>204</v>
+        <v>591</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -13032,13 +13039,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>440</v>
+        <v>595</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>441</v>
+        <v>596</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -13056,56 +13063,56 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>132</v>
+        <v>389</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
@@ -13114,19 +13121,19 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>446</v>
+        <v>600</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>447</v>
+        <v>601</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>448</v>
+        <v>602</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -13151,13 +13158,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -13175,46 +13182,46 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>79</v>
+        <v>603</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>453</v>
+        <v>131</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13233,19 +13240,19 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>603</v>
+        <v>449</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>604</v>
+        <v>450</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>509</v>
+        <v>451</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>510</v>
+        <v>452</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13270,13 +13277,13 @@
         <v>79</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
@@ -13294,7 +13301,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13306,29 +13313,148 @@
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AM94" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AN94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO94" t="s" s="2">
+      <c r="O95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO95" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO94">
+  <autoFilter ref="A1:AO95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13338,7 +13464,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI93">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.0</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.3</t>
   </si>
   <si>
     <t>Name</t>
